--- a/public/docs/TABELA_SIMULACAO_APOSTAS_COTACOES.xlsx
+++ b/public/docs/TABELA_SIMULACAO_APOSTAS_COTACOES.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>#</t>
   </si>
@@ -58,16 +58,57 @@
   </si>
   <si>
     <t>PREMIO VENCEDORES (R$)</t>
+  </si>
+  <si>
+    <t>VALOR APOSTA</t>
+  </si>
+  <si>
+    <t>INICIAL</t>
+  </si>
+  <si>
+    <t>BANCA</t>
+  </si>
+  <si>
+    <t>PREMIO</t>
+  </si>
+  <si>
+    <t>FATOR</t>
+  </si>
+  <si>
+    <t>% BANCA</t>
+  </si>
+  <si>
+    <t>SALDO</t>
+  </si>
+  <si>
+    <t>RESGATE</t>
+  </si>
+  <si>
+    <t>TAXA</t>
+  </si>
+  <si>
+    <t>% TAXA</t>
+  </si>
+  <si>
+    <t>TOTAIS</t>
+  </si>
+  <si>
+    <t>MONTANTE</t>
+  </si>
+  <si>
+    <t>X PREMIO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +137,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -235,11 +284,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -247,29 +297,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -279,10 +311,58 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -295,25 +375,26 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="2" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -614,7 +695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -623,349 +704,349 @@
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="4" width="25.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="2.7109375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" style="4" customWidth="1"/>
     <col min="7" max="7" width="2.7109375" customWidth="1"/>
     <col min="8" max="9" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="31"/>
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="30"/>
+      <c r="H3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="11">
+      <c r="E4" s="31"/>
+      <c r="F4" s="32">
         <f>F10*I11</f>
         <v>84</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3">
+      <c r="G4" s="30"/>
+      <c r="H4" s="2">
         <v>1</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="31"/>
+      <c r="F6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="30"/>
+      <c r="H6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>5</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="11">
+      <c r="E7" s="31"/>
+      <c r="F7" s="32">
         <f>F4-I7</f>
         <v>71.400000000000006</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="3" t="s">
+      <c r="G7" s="30"/>
+      <c r="H7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <f>F4*I6%</f>
         <v>12.6</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>3</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="15"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>1</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>1</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="31"/>
+      <c r="F9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="3" t="s">
+      <c r="G9" s="30"/>
+      <c r="H9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="10">
         <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>2</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="9">
+      <c r="E10" s="31"/>
+      <c r="F10" s="37">
         <f>COUNTIF(C4:C50,"&lt;&gt;")</f>
         <v>12</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="19" t="s">
+      <c r="E11" s="31"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="33">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>9</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>3</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>3</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="7" t="s">
+      <c r="E12" s="31"/>
+      <c r="F12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
     </row>
     <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>10</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>4</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>1</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="9">
+      <c r="E13" s="31"/>
+      <c r="F13" s="37">
         <f>COUNTIFS(C4:C50,H4,D4:D50,I4)</f>
         <v>3</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
     </row>
     <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>11</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>1</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>2</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>12</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>1</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>1</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="7" t="s">
+      <c r="E15" s="31"/>
+      <c r="F15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
     </row>
     <row r="16" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="20">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="34">
         <f>IF(F13&lt;&gt;0,F7/F13,0)</f>
         <v>23.8</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
     </row>
     <row r="17" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>14</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>15</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>16</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="F19" s="8" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="F19" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>17</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>18</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
       <c r="F21" s="23">
         <f>F16*I9</f>
         <v>5.95</v>
@@ -975,214 +1056,221 @@
       <c r="I21" s="25"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>19</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
       <c r="F22" s="26"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
-      <c r="I22" s="17"/>
+      <c r="I22" s="28"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>20</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>21</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>22</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>23</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>24</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>25</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>26</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>27</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>28</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>29</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>30</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>31</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>32</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>33</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>34</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <v>35</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <v>36</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>37</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>38</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>39</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>40</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="3">
+      <c r="B44" s="2">
         <v>41</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="3">
+      <c r="B45" s="2">
         <v>42</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="3">
+      <c r="B46" s="2">
         <v>43</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="3">
+      <c r="B47" s="2">
         <v>44</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="3">
+      <c r="B48" s="2">
         <v>45</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="3">
+      <c r="B49" s="2">
         <v>46</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="3">
+      <c r="B50" s="2">
         <v>47</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F21:I22"/>
+    <mergeCell ref="F19:I20"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:E17"/>
+    <mergeCell ref="G2:G17"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="I11:I16"/>
     <mergeCell ref="H11:H16"/>
     <mergeCell ref="F4:F5"/>
@@ -1190,13 +1278,6 @@
     <mergeCell ref="F18:I18"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F21:I22"/>
-    <mergeCell ref="F19:I20"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:E17"/>
-    <mergeCell ref="G2:G17"/>
-    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -1205,24 +1286,225 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="17" style="12" customWidth="1"/>
+    <col min="3" max="8" width="15.7109375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="2.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="10">
+        <v>2</v>
+      </c>
+      <c r="C3" s="18">
+        <v>1900</v>
+      </c>
+      <c r="D3" s="10">
+        <f>B3*K2</f>
+        <v>8</v>
+      </c>
+      <c r="E3" s="10">
+        <f>B3*C3</f>
+        <v>3800</v>
+      </c>
+      <c r="F3" s="10">
+        <f>((B3*C3)+D3)*K3%</f>
+        <v>1142.3999999999999</v>
+      </c>
+      <c r="G3" s="10">
+        <f>(B3*C3+D3)-F3</f>
+        <v>2665.6000000000004</v>
+      </c>
+      <c r="H3" s="41">
+        <f>G3/B3</f>
+        <v>1332.8000000000002</v>
+      </c>
+      <c r="I3" s="40"/>
+      <c r="J3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C5" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I2:I3"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="4" width="15.7109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="3.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="21">
+        <v>275</v>
+      </c>
+      <c r="C3" s="21">
+        <v>200</v>
+      </c>
+      <c r="D3" s="21">
+        <f>C3*$G$2%</f>
+        <v>2</v>
+      </c>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="21">
+        <v>951</v>
+      </c>
+      <c r="C4" s="21">
+        <v>500</v>
+      </c>
+      <c r="D4" s="21">
+        <f t="shared" ref="D4:D7" si="0">C4*$G$2%</f>
+        <v>5</v>
+      </c>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="21">
+        <v>1495</v>
+      </c>
+      <c r="C5" s="21">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="21">
+        <v>378</v>
+      </c>
+      <c r="C6" s="21">
+        <v>350</v>
+      </c>
+      <c r="D6" s="21">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="21">
+        <v>510</v>
+      </c>
+      <c r="C7" s="21">
+        <v>500</v>
+      </c>
+      <c r="D7" s="21">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="22">
+        <f>SUM(C3:C7)</f>
+        <v>2550</v>
+      </c>
+      <c r="D8" s="22">
+        <f>SUM(D3:D7)</f>
+        <v>25.5</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="F3:G8"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>